--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_tianchuang2_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_tianchuang2_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>请坐，同学们拿出纸和笔听写准备，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>学生听写</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“同学们拿出纸和笔听写准备”体现出老师发起了一个开展课堂活动的指令。首先，“同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“拿出纸和笔听写准备”体现出老师让学生开展听写活动。综合上述整段话的分析过程，这个课堂活动是全体学生参与的听写活动，符合“学生听写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生听写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -494,7 +498,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +517,11 @@
           <t>注意用眼卫生，慰藉老鹰霸气，慰藉，老鹰霸气慰藉。老鹰霸气，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段老师的话语没有明确体现出任何开展课堂活动的指令，也无法判断学生即将进行的活动。
@@ -545,7 +553,11 @@
           <t>阅读四到七自然段。二想一想，在什么情况下，小小的天窗成了孩子们唯一的慰藉。三完成任务单，第二题四时间三分钟，把书打开，计时就行，坐那计时就行，边读边完成学习单。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“阅读四到七自然段。想一想，在什么情况下，小小的天窗成了孩子们唯一的慰藉。”体现出老师发起了一个开展课堂活动的指令，要求全体学生进行阅读和思考。“完成任务单，第二题”体现出老师要求全体学生完成学习单中的题目。“时间三分钟，把书打开，计时就行，坐那计时就行，边读边完成学习单”进一步明确了时间限制和活动要求。由于阅读、思考和完成学习单都是由全体学生独自完成的活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -558,7 +570,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -577,7 +589,11 @@
           <t>天窗就成了小朋友们唯一的慰藉，他找的准确不对？对对对，没错，找的很准确，那么我们就可以把它概括为下前，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要是在对学生的回答进行评价和总结，并没有发起新的课堂活动指令。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -590,7 +606,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +625,11 @@
           <t>天黑前上床睡觉都是我们习以为常的。为什么在作者看来却需要慰藉呢？请同学们联系自然。第四，自然段想一想，好，你继续说，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>独立练习或学生展示</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，第一步，分析第一个子文本段——“请同学们联系第四自然段想一想”，这句话体现出老师发起了一个开展课堂活动的指令。首先，”请同学们联系“中的”同学们“体现出该活动是由全体学生共同开展的。进一步地，”联系第四自然段想一想“中的”想一想“体现出老师要求学生开展思考活动，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合第一个子文本段的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征，因而，老师发起了一个要求学生开展“独立练习”的指令。
@@ -643,7 +663,11 @@
           <t>谁来读我来读，简谢到屋里来啊，随着木板窗的关闭，孩子们也就被关在地洞似的屋里了。嗯，真孤单呐。所以说小小的天窗吵，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来读”体现出老师发起了一个开展课堂活动的指令，邀请一位学生来执行朗读任务。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -656,7 +680,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -675,7 +699,11 @@
           <t>透过这小小的天窗，作者又看到了怎样的快乐呢？请同学们完成第二关自学提示。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“请同学们完成第二关自学提示”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“完成第二关自学提示”体现出老师要求学生独自按照自学提示来完成相关任务。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -683,7 +711,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -702,7 +730,11 @@
           <t>阅读四五自然段二画一画，把作者看到的用横线画出来，把作者想到的用浪线画出来。三想一想，小小的天窗给孩子们带来了怎样的快乐？四时间三分钟好，同学们开始吧，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“阅读四五自然段，二画一画，把作者看到的用横线画出来，把作者想到的用浪线画出来。三想一想，小小的天窗给孩子们带来了怎样的快乐？”体现出老师发起了一个开展课堂活动的指令。首先，“同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“画一画”“想一想”体现出老师要求学生进行阅读、思考和标注的活动，这些活动通常是由每一个学生独自完成的。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -715,7 +747,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +766,11 @@
           <t>大部分同学都已经完成了，对吗？对对，好坐姿，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“大部分同学都已经完成了”体现出老师在关注同学们的任务完成情况，“好坐姿”是对学生坐姿的要求，整段话没有发起新的课堂活动指令。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -766,7 +802,11 @@
           <t>谁来说说，作者看到了什么，想象到了什么？我来说涵涵来说说画横线的是你会看见雨脚在那里不落不落跳。嗯，你会看见带似的闪电一瞥，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来说说，作者看到了什么，想象到了什么？”体现出老师发起了一个开展课堂活动的指令，“谁来说说”表明老师邀请一位学生来回答问题。“涵涵来说说画横线的是你会看见雨脚在那里不落不落跳。嗯，你会看见带似的闪电一瞥”体现出老师指定涵涵这位同学来回答问题。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -774,7 +814,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -793,7 +833,11 @@
           <t>嗯，他画的对不对？我们继续往下来。第三关，请同学们默读自学提示自己完成挑战，时间三分钟。这里老师提示了大家是要把关键词写在写字单上，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“第三关，请同学们默读自学提示自己完成挑战，时间三分钟”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“默读自学提示自己完成挑战”中的“自己完成挑战”体现出老师要求每一位学生独立完成挑战。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -806,7 +850,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -825,7 +869,11 @@
           <t>现在只完成第三题，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“现在只完成第三题”体现出老师发起了一个开展课堂活动的指令。首先，“现在”体现出老师要求立即执行。进一步地，“只完成第三题”体现出老师要求全体学生独自完成这一道题目。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -833,7 +881,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -852,7 +900,11 @@
           <t>那同学们，作者呀没有对当时的情境尽行想象，进行具体的描写。同学们，你能展开想象，具体说一说这暴风雨究竟扫荡了怎样的世界吗？你想象一下，医生，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“同学们，你能展开想象，具体说一说这暴风雨究竟扫荡了怎样的世界吗？”体现出老师发起了一个开展课堂活动的指令。首先，“同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“展开想象，具体说一说”体现出老师要求学生利用想象力深入描述暴风雨扫荡的世界，由于想象活动是个体的大脑思维活动，无法集体整齐划一地开展，所以，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -865,7 +917,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -884,7 +936,11 @@
           <t>你想象这雨这风，这雷这电怎样扫荡了，整个扫荡了这世界，你想象他们的威力比你在露天真实感受到的要的十倍百倍。我们一起来感受一下。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我们一起来感受一下”体现出老师发起了一个开展课堂活动的指令。首先，“我们”一词体现出这个课堂活动是由全体学生共同参与的。进一步地，“感受一下”体现出老师邀请学生参与感受活动，感受活动是个体的心理体验活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -892,7 +948,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -911,7 +967,11 @@
           <t>自学六七自然段默读自学提示，时间，七分钟，小组之间一议开始，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，第一步，先分析第一个子文本段——“自学六七自然段默读自学提示，时间，七分钟”，其中“自学六七自然段”体现出老师发起了一个开展课堂活动的指令，其中，“自学”体现出老师要求全体学生独自按照自学提示来学习六七自然段。综合第一个子文本段的分析过程，这个课堂活动由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征，因此，老师发出了一个要求学生开展”独立练习“课堂活动的指令。
@@ -926,7 +986,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -945,7 +1005,11 @@
           <t>就可以小组交流了，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“就可以小组交流了”体现出老师发起了一个开展课堂活动的指令，明确要求学生以小组的形式开展交流活动。综合上述整段话的分析过程，这个课堂活动是学生以小组形式通过互相讨论来达到自主学习的目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -953,7 +1017,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -972,7 +1036,11 @@
           <t>哎，其他同学注意听听他们的发言，你来补充交流，请大家看。第六，自然段，作者被逼迫着上船休息，感到非常的无奈，他只能偷偷的伸出头，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“哎，其他同学注意听听他们的发言，你来补充交流”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展补充交流的活动。进一步地，“请大家看。第六自然段”体现出老师要求全体学生关注特定的内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -985,7 +1053,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1072,11 @@
           <t>所以小小的天窗就成了唯一的慰藉。嗯，大家把目光好，第七好，你们小组先坐下，他刚刚抓住的是这个自然段还有补充吗，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你们小组先坐下”体现出老师对某个小组的指令，但不是发起新的课堂活动。“他刚刚抓住的是这个自然段还有补充吗”体现出老师在询问关于学生对某个自然段理解的情况，没有明确发起新的课堂活动指令。综合上述整段话的分析过程，无法识别出预设的课堂活动类别。
@@ -1012,7 +1084,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1031,7 +1103,11 @@
           <t>那让我们合作来来读一读老师来读看到的部分，你们来读想象到的部分。最后一句话我们一起来读，好不好？好好了吗？美好了，嗯，你会从那小玻璃上面的一粒星一朵云，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那让我们合作来读一读老师来读看到的部分，你们来读想象到的部分“体现出老师发起了一个开展课堂活动的指令，其中，“我们合作”体现出这个课堂活动是老师邀请学生集体参与的。进一步地，”老师来读看到的部分，你们来读想象到的部分”体现出老师对课堂任务进行了分工：老师读看到的部分，学生读想象的部分，通常情况下，这种老师读一部分，学生集体读一部分的行为，老师会引导学生整齐划一地开展，“我们一起来读”这句话也体现出了要求学生整齐划一地朗读。综合上述整段话的分析过程，这个课堂活动是由学生集体参与、且整齐划一地开展的朗读活动，符合”学生齐读“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1039,7 +1115,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1058,7 +1134,11 @@
           <t>你会从哪儿？老师读了，你会从那小玻璃上面掠过的一条黑影下降的傲洲。</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“老师读了，你会从那小玻璃上面掠过的一条黑影下降的傲洲。”体现出老师发起了一个开展课堂活动的指令，其中“老师读了”表明老师首先进行朗读，“你会从那小玻璃上面掠过的一条黑影下降的傲洲”这句要求学生进行相关内容的朗读，但没有明确是个体朗读还是集体朗读。综合上述整段话的分析过程，这个课堂活动是学生参与的朗读活动，但无法确定是个体还是集体朗读，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1085,7 +1165,11 @@
           <t>我们还可以同桌之间互相的再读一读。这么美的句子，正是因为有了天窗，所以呀被关在地洞似的屋子里的孩子们才有了如此丰富奇妙的想象，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我们还可以同桌之间互相的再读一读”体现出老师发起了一个开展课堂活动的指令。首先，“我们还可以”体现出这个课堂活动是老师邀请全体学生共同参与的。进一步地，“同桌之间互相的再读一读”体现出老师要求学生以同桌为单位开展朗读活动。综合上述整段话的分析过程，这个课堂活动是学生以同桌为单位通过互相朗读来达到学习目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1098,7 +1182,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1117,7 +1201,11 @@
           <t>所以作者忍不住说，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，没有体现出老师发起任何开展课堂活动的指令，无法明确课堂活动的类型和状态。
@@ -1144,7 +1232,11 @@
           <t>就是无和有作者运用神奇的想象，把看到的一粒星想出无数颗星星，把云想出了千姿百态的奇幻云彩，这些是不存在的，就是虚和实。嗯，还有想谈谈你的看法，看法还有吗？</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“嗯，还有想谈谈你的看法，看法还有吗？”体现出老师发起了一个开展课堂活动的指令，邀请学生发表关于“虚和实”的看法。这个指令是针对单个学生的，且要求用话语来表达。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1157,7 +1249,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1268,11 @@
           <t>好，最后老师再给大家几分钟同桌合作，再来读一读。唉，是怎样从无中看出有从虚中看出实的感受一下作者的想象桌互读开始，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，最后老师再给大家几分钟同桌合作，再来读一读”体现出老师发起了一个开展课堂活动的指令。首先，“大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“同桌合作”和“再来读一读”体现出老师要求学生以同桌为单位进行朗读活动。综合上述整段话的分析过程，这个课堂活动是学生以同桌为单位通过互相合作来达到朗读目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1189,7 +1285,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1208,7 +1304,11 @@
           <t>好了是吗？嗯，今天啊我们学习了天窗，感受到了作者的想象。其实生活中并不是缺少天窗，而是缺少发现，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是对当天的学习内容进行了总结和回顾，没有发起新的课堂活动的指令，也没有体现出学生要进行任何课堂活动的信息。
@@ -1240,7 +1340,11 @@
           <t>请坐先整理桌面，把你的笔袋儿笔放到笔袋儿里面去，一手拿笔袋儿，一手拿书，嗯，挺的，也把笔袋儿拉到桌洞里面去，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请坐先整理桌面，把你的笔袋儿笔放到笔袋儿里面去，一手拿笔袋儿，一手拿书，嗯，挺的，也把笔袋儿拉到桌洞里面去”体现出老师发起了一个开展课堂活动的指令。其中，“请坐”体现出老师先让学生坐下，然后进行一系列整理物品的动作，如将笔放入笔袋、将笔袋放入桌洞等。这些动作是每个学生独自完成的，需要独立进行。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
